--- a/loaded_influencer_data/salneliau/salneliau_video.xlsx
+++ b/loaded_influencer_data/salneliau/salneliau_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7397059951979416865</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65200</v>
+        <v>65600</v>
       </c>
       <c r="C2" t="n">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.266871165644172</v>
+        <v>1.26219512195122</v>
       </c>
       <c r="I2" t="n">
-        <v>1.200920245398773</v>
+        <v>1.196646341463415</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06595092024539878</v>
+        <v>0.06554878048780488</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2407975460122699</v>
+        <v>0.2408536585365854</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7435682681431575841</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172300</v>
+        <v>172400</v>
       </c>
       <c r="C3" t="n">
-        <v>5176</v>
+        <v>5179</v>
       </c>
       <c r="D3" t="n">
         <v>42</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.028438769587928</v>
+        <v>3.028422273781902</v>
       </c>
       <c r="I3" t="n">
-        <v>3.004062681369704</v>
+        <v>3.004060324825986</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02437608821822403</v>
+        <v>0.02436194895591647</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8995937318630296</v>
+        <v>0.9002320185614849</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7289140367918730528</t>
         </is>
@@ -634,8 +634,8 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>obsessed 🍂
-#fyp #mangobag #unibag #fashionunboxing</t>
+          <t>girlies, run to @ARKET &lt;3
+#arket #pufferjacket #winterjacket #ugccontentcreator #fyp</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -665,2347 +665,2395 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@salneliau/video/7489118731906387222</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>455</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Skincare inspired by Hailey Bieber is always a yes 🤌🏼✨ @Medicube Global
+#medicube #haileybieber</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12.30769230769231</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.98901098901099</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.318681318681319</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6593406593406593</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@salneliau/video/7488738158843071766</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>652</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>if glass skin had a sound✨ @Medicube Global
+#medicube #glassskin #kbeauty #asmr #glass #collagenwrappingmask</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.368098159509203</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.601226993865031</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7668711656441718</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@salneliau/video/7488417625165319446</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>296</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>the ultimate everyday cleanse 🫧
+@Cetaphil Skincare UK &amp; Ireland</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.094594594594595</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.067567567567568</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.027027027027027</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@salneliau/photo/7487697087681907990</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>524</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>The game changer… ✨ @Aegle's
+#aeglesbotanicals</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.152671755725191</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.152671755725191</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7633587786259541</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7486577356820253974</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>358</v>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B9" t="n">
+        <v>456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34</v>
+      </c>
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>double cleansing routine with @nooni 🤍
-use my code SALNESS5 at @SKINSEOUL for a discount 🤍
-#nooni</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10.05586592178771</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.938547486033519</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.11731843575419</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5586592178770949</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The game changer… ✨ @Aegle's
+#aeglesbotanicals</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.456140350877193</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4385964912280702</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7485781660836039958</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1407</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>double cleansing routine with @nooni 🤍
-use my code SALNESS5 at @SKINSEOUL for a discount 🤍
-#nooni</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8.67093105899076</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.036247334754798</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.634683724235963</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.918976545842218</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="B10" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C10" t="n">
+        <v>119</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>finallyyyy !
+#ugccreator #ugcportfolio</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7.492195629552549</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.191467221644121</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.300728407908429</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.393340270551509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7485502862903086358</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>524</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>@The Ordinary Multi-Active Delivery Essence instantly hydrates, nourishes, and primes your skin, creating the perfect base for your routine 🤍</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>6.488549618320611</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>5.916030534351145</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.5725190839694656</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>0.5725190839694656</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7484708132086910210</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>527</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Can’t believe the progress and improvement in my skin since taking @Aegle's 🌞🤍
 #aeglesbotanicals</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>5.502846299810247</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>5.313092979127135</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.189753320683112</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>0.189753320683112</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7481664973605735702</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>677</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>had to hop on this trend 🥹</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>5.465288035450517</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>5.465288035450517</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.1477104874446086</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7480488118831811862</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>58900</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>11200</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>18</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>891</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>hot girl summer pending
 #fyp #contentcreator #hotgirlsummer #stairmaster</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>19.04584040747029</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>19.01528013582343</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.03056027164685908</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>1.512733446519525</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7479458499404057878</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>835</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>66</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>my brain 24/7
 #contentcreator #ugccreator #fyp</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>9.101796407185629</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>7.904191616766468</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.197604790419162</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>0.2395209580838323</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7479079976705314070</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>1297</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>71</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>new fragrance unlocked 💗 @Valentino.Beauty @Community X SEEN
 #fragrance #fragtok #perfumetok</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>6.707787201233615</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>5.474171164225135</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.233616037008481</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>0.1542020046260601</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7478800294336417046</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>3282</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>104</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>me 🤝🏼 this exfoliator @Paula’s Choice UK
 #paulaschoice #eveningskincare #acneproneskin #ugccreator</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>3.930530164533821</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>3.168799512492383</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.7617306520414382</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>0.1218769043266301</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7478222789359586582</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>563</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>49</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>just loving life</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>10.8348134991119</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>8.703374777975133</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.131438721136767</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>0.3552397868561279</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7477949867558489366</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>617</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>44</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>my @Paula’s Choice UK evening skincare routine for acne-prone skin 🫧 I’ve seen incredible results just after a week of sticking to this routine already, can’t wait to update you guys 🧖🏽‍♀️</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>9.076175040518638</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>7.13128038897893</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.944894651539709</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>0.1620745542949757</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7477482721107922198</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>541</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>36</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>13</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Use my code SALNELIAU777 for some discount on these amazing products 🫧🧖🏽‍♀️🤍
 @mixsoon
 #YesStyle</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>9.057301293900185</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>6.654343807763401</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.402957486136784</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.9242144177449169</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7477326288936652054</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>630</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>51</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>spring is here 🌼
 @MarcJacobsFragrances @Community X SEEN #MJDaisy</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>9.841269841269842</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>8.095238095238095</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.746031746031746</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7476838943770594582</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>761</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>80</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>11</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>happy 1st of march besties 🌸🧋👱🏼‍♀️
 #fyp #1stofthemonth</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>11.95795006570302</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>10.51248357424442</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.445466491458607</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.3942181340341656</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7476583943362383126</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>449</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>47</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>my type of happiness 🤍
 @NEOM Wellbeing UK #neomambassadors #neomunboxing</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>11.80400890868597</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>10.46770601336303</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.33630289532294</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.22271714922049</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7476240417164446998</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>2387</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>29</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>7</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>@Aegle's quite literally saved my skin 🤍
 #aeglesbotanicals</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1.508169250104734</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>1.214914118139925</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.2932551319648094</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>0.0837871805613741</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7475777165221498134</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>517</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>54</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>3 days in Barcelona with my loves @katuciak @Rūta Laurutytė
 #barcelonadiaries #barcelona #fyp</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>13.15280464216634</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>10.44487427466151</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.707930367504836</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.3868471953578337</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7475343259477298454</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>580</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>28</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>an essential part of my morning routine @Aegle's 🤍
 #aeglesbotanicals</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>5.172413793103448</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>4.827586206896552</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.3448275862068966</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7474988537037786390</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>1045</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>117</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>16</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>22</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>I hope this helps any small content creators looking to step into the world of working with their dream brands 📦🤍</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>12.72727272727273</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>11.19617224880383</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.5311004784689</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>2.105263157894737</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7469893983095868694</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>1006</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>144</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>13</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>it’s the little things 🍵
 #romanticizeyourlife #contentcreatr #londonlife #ugccreator #fyp</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>17.09741550695825</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>14.31411530815109</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.783300198807157</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>1.292246520874752</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7469525321763622166</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>1151</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>85</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>29</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>the only energy for 2025
 #contentcreator #ugccreator #fyp</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>9.904430929626413</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>7.38488271068636</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.519548218940052</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.5212858384013901</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7469137439785782550</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>647</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>72</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>ultimate self care day &lt;3
 #selfcare #dayinmylife #ugccreator #fyp</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>13.60123647604328</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>11.12828438948995</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.472952086553323</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>0.3091190108191654</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7468412925623962902</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>1390</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>62</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>23</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>@AYBL 🤎
 #aybl #ugccreator</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>6.115107913669065</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>4.460431654676259</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.654676258992806</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>0.2877697841726619</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7468007734948973846</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>585</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>71</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>15</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>so much new skincare to try 🥹🫧 @KSECRET GLOBAL
 #skincarehaul #skintok #kbeauty #koreanskincare</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>14.7008547008547</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>12.13675213675214</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.564102564102564</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.5128205128205128</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7467671380679527702</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>685</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>72</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>17</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>🩶 @SUPERDRY
 #superdry</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>12.99270072992701</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>10.51094890510949</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>2.481751824817518</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.291970802919708</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7467156019982896406</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>678</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>67</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>7</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>let’s do this 🎧🍵🫧
 #ugccreator #2025goals #smallcontentcreator</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>12.09439528023599</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>9.882005899705016</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.212389380530973</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>1.032448377581121</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7466817960796015894</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>2586</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>92</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>13</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>21</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>I’m so happy with the start of 2025 🥹🤍
 #ugccreator</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>4.060324825986079</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>3.557617942768755</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.502706883217324</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.8120649651972157</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7466557645407702294</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>657</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>67</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>run to @SUPERDRY for these ❤️‍🔥
 #superdry</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>10.95890410958904</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>10.19786910197869</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.76103500761035</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.30441400304414</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7466436204565728534</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>952</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>124</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>19</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>7</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>so excited for the new month ⭐️☕️☁️🎧✨
 #firstofthemonth #girlssupportgirls #ugccreator #fyp</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>15.02100840336134</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>13.02521008403362</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.995798319327731</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>0.7352941176470588</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7465793728087723286</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>1081</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>55</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>upgrading my gym trips with this new @SUPERDRY sports puffer jacket 🫶🏼🎧☁️
 #superdry</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>5.550416281221091</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>5.087881591119333</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.4625346901017576</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>0.09250693802035154</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7464363068231814422</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>28500</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>63</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>10</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>huge improvements 🤍 @Aegle's
 #aeglesbotanicals</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>0.2491228070175439</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>0.2210526315789474</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.02807017543859649</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>0.03508771929824561</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7463570629225221398</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>950</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>109</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>57</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>where are all my content creator girliesss 🎀🍵🫧
 #girlssupportgirls #ugccreator #fyp #smallcontentcreator</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>17.47368421052632</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>11.47368421052632</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>6</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.631578947368421</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7462761257079295254</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>902</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>58</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>14</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>my ride or die clear skin supplement 🤎 @Aegle's
 #aeglesbotanicals</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>7.982261640798225</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>6.430155210643015</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.552106430155211</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>0.221729490022173</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7462060944143748374</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>698</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>51</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Gifted by Wella Hair UK &amp; Ireland
 My hair has never felt healthier and softer 😭❣️
 @wellahair @wickedmovie</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>9.455587392550143</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>7.306590257879657</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.148997134670487</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.1432664756446991</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7460888822126038294</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>565</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>50</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>11</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>hairwash day with @hairburst 🫧💗
 #hairtok #hairwashday #hairburst #ugccreator #ugcexample</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>10.79646017699115</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>8.849557522123893</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.946902654867257</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.3539823008849557</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7459764484756770050</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>964</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>48</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>my ride or die hair product 💗 @Beauty Works
 #beautyworks #hairtok #ugccreator #ugcexample</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>5.601659751037345</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>4.979253112033195</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.6224066390041494</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.5186721991701244</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7459165064269024534</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>566</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>55</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>my absolute favourite lip combo 🫶🏼 @Huda Beauty</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>10.7773851590106</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>9.717314487632509</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.060070671378092</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>0.7067137809187279</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7458318828817239318</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>670</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>49</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>3</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>couldn’t live without this tool @Beauty Works 🤎
 #blowdry #hairtok #ugccreator #beautyworks</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>7.761194029850746</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>7.313432835820896</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.4477611940298508</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>0.2985074626865672</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7457469620493045014</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>1271</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>190</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>69</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>21</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>favourite day ☁️🎀
 #nailday #nailvlog #ugccreator #ugccontentcreator #fyp</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>20.37765538945712</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>14.94885916601101</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>5.428796223446105</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>1.652242328874902</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7456920901766991126</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>2180</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>85</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>9</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>always &amp; forever 🎀 @Versace
 #versaceperfume #perfumetiktok #ugccreator #ugcexample</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>4.403669724770642</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>3.89908256880734</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.5045871559633028</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.4128440366972477</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7456175591381912854</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>1714</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>129</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>34</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>12</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>this @Gisou hair oil is everything that my hair has ever needed ✨🍯
 #gisou #gisouhairoil #ugccreator #ugcexample #fyp</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>9.509918319719954</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>7.526254375729288</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.983663943990665</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.7001166861143524</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-05</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/video/7455106000325070102</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>16800</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>2105</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>719</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>196</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>can’t wait to connect and build this little amazing community 🤍
 #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>16.80952380952381</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>12.52976190476191</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.279761904761905</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@salneliau/photo/7454974835135991062</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>20000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>1373</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>192</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>563</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>I’m so excited to start my UGC creator’s journey this year and bring you all along 🤍
 #ugccreator</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>7.825</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>6.865</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.96</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>2.815</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@salneliau/video/7453035367550258434</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1952</v>
-      </c>
-      <c r="C48" t="n">
-        <v>164</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>15</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>this is your sign to completely rebrand your life for 2025
-#2025visionboard #thisandyap #fyp</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8.760245901639344</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8.401639344262295</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3586065573770492</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.7684426229508197</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2024-12-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@salneliau/video/7452724416162680086</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>7956</v>
-      </c>
-      <c r="C49" t="n">
-        <v>215</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Prada Paradoxe perfume is now refillable 💗
-@pradabeauty @Community X SEEN
-#pradaparadoxe</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>2.790346907993967</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.702362996480644</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.08798391151332328</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.08798391151332328</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-12-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@salneliau/video/7449680859579403542</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1783</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>6</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>the new Medicube device 🤍 @Medicube Global @medicube
-#medicube #medicubeambassador #tiktokshop</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2.579921480650589</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.523836231071228</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.05608524957936063</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3365114974761638</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-12-18</t>
         </is>
       </c>
     </row>
